--- a/biology/Zoologie/Blattodea/Blattodea.xlsx
+++ b/biology/Zoologie/Blattodea/Blattodea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Blattodea (les Blattoptères) sont un ordre d'insectes comprenant les blattes et les termites. Autrefois, les termites étaient regroupés dans un ordre à part, les Isoptera. Cependant, les dernières recherches sur la génétique de ces groupes suggèrent qu'ils ont évolué d'un ancêtre commun et qu'ils sont ainsi fortement liés[1],[2],[3]. Les Blattodea et  les Mantodea (les mantes) appartiennent au super-ordre des Polyneoptera (anciennement Dictyoptera).
-Les plus anciens fossiles de ce groupe proviennent de la période du Carbonifère, il y a près de 355 millions d'années[4]. Ces fossiles anciens diffèrent des cafards modernes par la présence d'un long ovipositeur externe. Les premiers fossiles de cafard moderne possédant un ovipositeur interne sont apparus au début du trias, il y a 250 millions d'années[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Blattodea (les Blattoptères) sont un ordre d'insectes comprenant les blattes et les termites. Autrefois, les termites étaient regroupés dans un ordre à part, les Isoptera. Cependant, les dernières recherches sur la génétique de ces groupes suggèrent qu'ils ont évolué d'un ancêtre commun et qu'ils sont ainsi fortement liés. Les Blattodea et  les Mantodea (les mantes) appartiennent au super-ordre des Polyneoptera (anciennement Dictyoptera).
+Les plus anciens fossiles de ce groupe proviennent de la période du Carbonifère, il y a près de 355 millions d'années. Ces fossiles anciens diffèrent des cafards modernes par la présence d'un long ovipositeur externe. Les premiers fossiles de cafard moderne possédant un ovipositeur interne sont apparus au début du trias, il y a 250 millions d'années.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste des familles de l'ordre des Blattodea</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Blattaria (blattes)
@@ -537,8 +551,43 @@
 Rhinotermitidae
 Serritermitidae
 Termitidae
-Selon ITIS
-Selon ITIS      (28 avril 2024)[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Blattodea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blattodea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des familles de l'ordre des Blattodea</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (28 avril 2024) :
 Super-famille Blaberoidea
 Blaberidae 
 Blattellidae
@@ -555,39 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Blattodea</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Blattodea</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Taxonomie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Blattodea (Latreille 1810)[6].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Blattes[7].
-Blattodea a pour synonyme[6] :
-Dictyoptera</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -609,10 +625,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Blattodea (Latreille 1810).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Blattes.
+Blattodea a pour synonyme :
+Dictyoptera</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blattodea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blattodea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Position au sein des insectes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
